--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nts-Ntsr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nts-Ntsr2.xlsx
@@ -525,22 +525,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.946587666666666</v>
+        <v>2.567946</v>
       </c>
       <c r="H2">
-        <v>8.839763</v>
+        <v>7.703838</v>
       </c>
       <c r="I2">
-        <v>0.9411413177545427</v>
+        <v>0.8361514603436194</v>
       </c>
       <c r="J2">
-        <v>0.9411413177545428</v>
+        <v>0.8361514603436195</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1836146460565555</v>
+        <v>0.160019843026</v>
       </c>
       <c r="R2">
-        <v>1.652531814509</v>
+        <v>1.440178587234</v>
       </c>
       <c r="S2">
-        <v>0.9411413177545427</v>
+        <v>0.8361514603436194</v>
       </c>
       <c r="T2">
-        <v>0.9411413177545428</v>
+        <v>0.8361514603436195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1842786666666667</v>
+        <v>0.5032033333333333</v>
       </c>
       <c r="H3">
-        <v>0.552836</v>
+        <v>1.50961</v>
       </c>
       <c r="I3">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="J3">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01148320226088889</v>
+        <v>0.03135678024777778</v>
       </c>
       <c r="R3">
-        <v>0.103348820348</v>
+        <v>0.28221102223</v>
       </c>
       <c r="S3">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="T3">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
     </row>
   </sheetData>
